--- a/小米汽车答网友问.xlsx
+++ b/小米汽车答网友问.xlsx
@@ -25,9 +25,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s?__biz=MzkyNzU3MDI3Nw==&amp;mid=2247486958&amp;idx=1&amp;sn=fa1835ddd2eee3bdafefcad5b74d2d94&amp;chksm=c2274de4f550c4f28c7b9e54f1a6a8bcacc3459e88bbe256c362a899a36ca32c80be4f87c45a&amp;scene=21#wechat_redirect</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/OR8sC6_KXorq4NC4UohyAQ</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/YeanZCIM4w8VL7XaRh0GaA</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/vmTpchQ6_yICyxZtwHViXQ</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/_reyYbhucrdEZuITTA97XA</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/_snL5Odhyw0FOimn46yA7A</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/ELPH13xkpUGLUj9FgAcq_A</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/IgEQ8lE93se983lv6wAL-w</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/wOGz_pKOlVXZ92S7Tv5njQ</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/uxzKFtcmVS1VrhvXMIfaJA</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/QSuLnmBFMm6mYJV26HB4Fw</t>
+    </r>
   </si>
   <si>
     <t/>
@@ -52,7 +195,215 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>https://mp.weixin.qq.com/s/AQOcrMncAUTLmH36MWyEag</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>https://mp.weixin.qq.com/s/yFMjIGID2q5JdPXlF7iifg</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/0jbh30HwXsHSx3Oz9bZ1xg</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/nBoe4PvhUVH6ybpxw1Qg4w</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/WLrgiFpO7PLZApqqQ1hRbg</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/-hrmZ9NUoPT5MntmD2ri1g</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/U7WEZB52mO3-G9C7fRnqEg</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/iDB0KfwHSndAwandVQQEzw</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/q08xpnd-LzNea_y6kX77sA</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/FZj6VzIFMdr2Vut-wI8Jsg</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/fGVruFB8BFdxudfRyBLzug</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/JC5aGDFDRvgpQ3FesjaS2A</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/_FOl9pXnbQxX4Czc1pUsZQ</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/HKn0rdn23qTID1eu1SfiXw</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/1yCjQsfYuNssWnKdowRRng</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/g4Xr3MWllPqd5hZD-_ibcQ</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mp.weixin.qq.com/s/xCidpA4jPrS9697uzNqvwg</t>
     </r>
   </si>
 </sst>
@@ -60,6 +411,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot; dddd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -90,7 +444,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -116,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,6 +486,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,8 +816,11 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="true" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,9 +834,11 @@
         <v>网址</v>
       </c>
       <c r="D1" s="2" t="str">
+        <v>发布时间</v>
+      </c>
+      <c r="E1" s="2" t="str">
         <v>规范标题</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -485,6 +854,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -494,12 +864,14 @@
         <v>雷军：小米汽车答网友100问（完整版）</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>小米汽车答网友问(第1集)</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45301</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>小米汽车答网友问(第0集)</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -515,21 +887,24 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3">
+      <c r="U2" s="2"/>
+    </row>
+    <row customHeight="true" ht="19" r="3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>小米SU7答网友问（第二集）</v>
+        <v>24小时大定88898台，大家关心的问题，我们集中解答</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>小米汽车答网友问(第2集)</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="3">
+        <v>45380</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>小米汽车答网友问(第1集)</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -545,17 +920,24 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
-        <v>小米汽车答网友问(第3集)</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="B4" s="1" t="str">
+        <v>小米SU7答网友问（第二集）</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45381</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>小米汽车答网友问(第2集)</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -571,17 +953,24 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
-        <v>小米汽车答网友问(第4集)</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="B5" s="1" t="str">
+        <v>小米SU7答网友问（第三集）</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45382</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>小米汽车答网友问(第3集)</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -597,17 +986,22 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
-        <v>小米汽车答网友问(第5集)</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="B6" s="1" t="str">
+        <v>小米SU8答网友问（第四集）</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="str">
+        <v>小米汽车答网友问(第4集)</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -623,15 +1017,22 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="str">
+        <v>小米SU9答网友问（第五集）</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1" t="str">
+        <v>小米汽车答网友问(第5集)</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -647,15 +1048,22 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="str">
+        <v>小米SU10答网友问（第六集）</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1" t="str">
+        <v>小米汽车答网友问(第6集)</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -671,15 +1079,22 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="str">
+        <v>小米SU11答网友问（第七集）</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1" t="str">
+        <v>小米汽车答网友问(第7集)</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -695,15 +1110,22 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="str">
+        <v>小米SU12答网友问（第八集）</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1" t="str">
+        <v>小米汽车答网友问(第8集)</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -719,15 +1141,22 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="str">
+        <v>小米SU13答网友问（第九集）</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1" t="str">
+        <v>小米汽车答网友问(第9集)</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -743,15 +1172,22 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="str">
+        <v>小米SU14答网友问（第十集）</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1" t="str">
+        <v>小米汽车答网友问(第10集)</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -767,15 +1203,22 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="str">
+        <v>小米SU15答网友问（第十一集）</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1" t="str">
+        <v>小米汽车答网友问(第11集)</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -791,15 +1234,22 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="str">
+        <v>小米SU8答网友问（第十二集）</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1" t="str">
+        <v>小米汽车答网友问(第12集)</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -815,15 +1265,22 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="str">
+        <v>小米SU8答网友问（第十三集）</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1" t="str">
+        <v>小米汽车答网友问(第13集)</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -839,15 +1296,22 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="str">
+        <v>小米SU9答网友问（第十四集）</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="1" t="str">
+        <v>小米汽车答网友问(第14集)</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -863,15 +1327,22 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="str">
+        <v>小米SU10答网友问（第十五集）</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="1" t="str">
+        <v>小米汽车答网友问(第15集)</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -887,15 +1358,22 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="str">
+        <v>小米SU11答网友问（第十六集）</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="1" t="str">
+        <v>小米汽车答网友问(第16集)</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -911,15 +1389,22 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="str">
+        <v>小米SU12答网友问（第十七集）</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="1" t="str">
+        <v>小米汽车答网友问(第17集)</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -935,15 +1420,22 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="str">
+        <v>小米SU13答网友问（第十八集）</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1" t="str">
+        <v>小米汽车答网友问(第18集)</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -959,15 +1451,22 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="str">
+        <v>小米SU14答网友问（第十九集）</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="1" t="str">
+        <v>小米汽车答网友问(第19集)</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -983,15 +1482,22 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="str">
+        <v>小米SU15答网友问（第二十集）</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="1" t="str">
+        <v>小米汽车答网友问(第20集)</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1007,15 +1513,22 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="str">
+        <v>小米SU15答网友问（第二十一集）</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="1" t="str">
+        <v>小米汽车答网友问(第21集)</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1031,15 +1544,22 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="str">
+        <v>小米SU8答网友问（第二十二集）</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="1" t="str">
+        <v>小米汽车答网友问(第22集)</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1055,15 +1575,22 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="str">
+        <v>小米SU8答网友问（第二十三集）</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1" t="str">
+        <v>小米汽车答网友问(第23集)</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1079,15 +1606,22 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1" t="str">
+        <v>小米SU9答网友问（第二十四集）</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="1" t="str">
+        <v>小米汽车答网友问(第24集)</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1103,15 +1637,22 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="str">
+        <v>小米SU10答网友问（第二十五集）</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="1" t="str">
+        <v>小米汽车答网友问(第25集)</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1127,15 +1668,22 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1" t="str">
+        <v>小米SU11答网友问（第二十六集）</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="1" t="str">
+        <v>小米汽车答网友问(第26集)</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1151,15 +1699,22 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="str">
+        <v>小米SU12答网友问（第二十七集）</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="1" t="str">
+        <v>小米汽车答网友问(第27集)</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1175,15 +1730,22 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1" t="str">
+        <v>小米SU13答网友问（第二十八集）</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="1" t="str">
+        <v>小米汽车答网友问(第28集)</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1199,15 +1761,20 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="str">
+        <v>小米SU14答网友问（第二十九集）</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="1" t="str">
+        <v>小米汽车答网友问(第29集)</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1223,6 +1790,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -1231,7 +1799,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="1" t="str">
+        <v>小米汽车答网友问(第30集)</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1247,6 +1817,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -1255,7 +1826,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="1" t="str">
+        <v>小米汽车答网友问(第31集)</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1271,6 +1844,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -1279,7 +1853,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="1" t="str">
+        <v>小米汽车答网友问(第32集)</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1295,6 +1871,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -1303,7 +1880,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="1" t="str">
+        <v>小米汽车答网友问(第33集)</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1319,6 +1898,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -1327,7 +1907,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="1" t="str">
+        <v>小米汽车答网友问(第34集)</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1343,6 +1925,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -1351,7 +1934,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="1" t="str">
+        <v>小米汽车答网友问(第35集)</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1367,6 +1952,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -1375,7 +1961,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1" t="str">
+        <v>小米汽车答网友问(第36集)</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1391,6 +1979,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -1399,7 +1988,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="1" t="str">
+        <v>小米汽车答网友问(第37集)</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1415,6 +2006,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -1423,7 +2015,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1" t="str">
+        <v>小米汽车答网友问(第38集)</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1439,6 +2033,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -1447,7 +2042,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="1" t="str">
+        <v>小米汽车答网友问(第39集)</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1463,6 +2060,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -1471,7 +2069,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="1" t="str">
+        <v>小米汽车答网友问(第40集)</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1487,6 +2087,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -1495,7 +2096,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="1" t="str">
+        <v>小米汽车答网友问(第41集)</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1511,6 +2114,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -1519,7 +2123,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="1" t="str">
+        <v>小米汽车答网友问(第42集)</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1535,6 +2141,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -1543,7 +2150,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="1" t="str">
+        <v>小米汽车答网友问(第43集)</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1559,6 +2168,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -1567,7 +2177,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="1" t="str">
+        <v>小米汽车答网友问(第44集)</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1583,6 +2195,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -1591,7 +2204,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="1" t="str">
+        <v>小米汽车答网友问(第45集)</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1607,6 +2222,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -1615,7 +2231,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="1" t="str">
+        <v>小米汽车答网友问(第46集)</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1631,6 +2249,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -1639,7 +2258,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="1" t="str">
+        <v>小米汽车答网友问(第47集)</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1655,6 +2276,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -1663,7 +2285,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="1" t="str">
+        <v>小米汽车答网友问(第48集)</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1679,6 +2303,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -1687,7 +2312,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="1" t="str">
+        <v>小米汽车答网友问(第49集)</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1703,6 +2330,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -1711,7 +2339,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="1" t="str">
+        <v>小米汽车答网友问(第50集)</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1727,6 +2357,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -1735,7 +2366,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="1" t="str">
+        <v>小米汽车答网友问(第51集)</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1751,6 +2384,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -1759,7 +2393,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="1" t="str">
+        <v>小米汽车答网友问(第52集)</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1775,6 +2411,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -1783,7 +2420,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="1" t="str">
+        <v>小米汽车答网友问(第53集)</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1799,6 +2438,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -1807,7 +2447,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="1" t="str">
+        <v>小米汽车答网友问(第54集)</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1823,6 +2465,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -1831,7 +2474,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="1" t="str">
+        <v>小米汽车答网友问(第55集)</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1847,6 +2492,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -1855,7 +2501,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="1" t="str">
+        <v>小米汽车答网友问(第56集)</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1871,6 +2519,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -1879,7 +2528,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="1" t="str">
+        <v>小米汽车答网友问(第57集)</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1895,6 +2546,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -1903,7 +2555,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="1" t="str">
+        <v>小米汽车答网友问(第58集)</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1919,6 +2573,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -1927,7 +2582,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="1" t="str">
+        <v>小米汽车答网友问(第59集)</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1943,6 +2600,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -1951,7 +2609,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="1" t="str">
+        <v>小米汽车答网友问(第60集)</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -1967,6 +2627,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -1975,7 +2636,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="1" t="str">
+        <v>小米汽车答网友问(第61集)</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1991,6 +2654,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -1999,7 +2663,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="1" t="str">
+        <v>小米汽车答网友问(第62集)</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2015,6 +2681,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -2023,7 +2690,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1" t="str">
+        <v>小米汽车答网友问(第63集)</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2039,6 +2708,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -2047,7 +2717,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1" t="str">
+        <v>小米汽车答网友问(第64集)</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2063,6 +2735,7 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -2071,7 +2744,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="1" t="str">
+        <v>小米汽车答网友问(第65集)</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2087,6 +2762,7 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -2095,7 +2771,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="1" t="str">
+        <v>小米汽车答网友问(第66集)</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2111,6 +2789,7 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -2119,7 +2798,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="1" t="str">
+        <v>小米汽车答网友问(第67集)</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2135,6 +2816,7 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -2143,7 +2825,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1" t="str">
+        <v>小米汽车答网友问(第68集)</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2159,6 +2843,7 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -2167,7 +2852,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1" t="str">
+        <v>小米汽车答网友问(第69集)</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2183,6 +2870,7 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -2191,7 +2879,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="1" t="str">
+        <v>小米汽车答网友问(第70集)</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2207,6 +2897,7 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -2215,7 +2906,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="1" t="str">
+        <v>小米汽车答网友问(第71集)</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -2231,6 +2924,7 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -2239,7 +2933,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="1" t="str">
+        <v>小米汽车答网友问(第72集)</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2255,6 +2951,7 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -2263,7 +2960,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1" t="str">
+        <v>小米汽车答网友问(第73集)</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -2279,6 +2978,7 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -2287,7 +2987,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="1" t="str">
+        <v>小米汽车答网友问(第74集)</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2303,6 +3005,7 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -2311,7 +3014,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="1" t="str">
+        <v>小米汽车答网友问(第75集)</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2327,6 +3032,7 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -2335,7 +3041,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="1" t="str">
+        <v>小米汽车答网友问(第76集)</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2351,6 +3059,7 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -2359,7 +3068,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="1" t="str">
+        <v>小米汽车答网友问(第77集)</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2375,6 +3086,7 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -2383,7 +3095,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="1" t="str">
+        <v>小米汽车答网友问(第78集)</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2399,6 +3113,7 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -2407,7 +3122,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="1" t="str">
+        <v>小米汽车答网友问(第79集)</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2423,6 +3140,7 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -2431,7 +3149,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="1" t="str">
+        <v>小米汽车答网友问(第80集)</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2447,6 +3167,7 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -2455,7 +3176,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="1" t="str">
+        <v>小米汽车答网友问(第81集)</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2471,6 +3194,7 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -2479,7 +3203,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="1" t="str">
+        <v>小米汽车答网友问(第82集)</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -2495,6 +3221,7 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -2503,7 +3230,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1" t="str">
+        <v>小米汽车答网友问(第83集)</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -2519,6 +3248,7 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -2527,7 +3257,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="1" t="str">
+        <v>小米汽车答网友问(第84集)</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2543,6 +3275,7 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -2551,7 +3284,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="1" t="str">
+        <v>小米汽车答网友问(第85集)</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -2567,6 +3302,7 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -2575,7 +3311,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="1" t="str">
+        <v>小米汽车答网友问(第86集)</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2591,6 +3329,7 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -2599,7 +3338,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="1" t="str">
+        <v>小米汽车答网友问(第87集)</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -2615,6 +3356,7 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -2623,7 +3365,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1" t="str">
+        <v>小米汽车答网友问(第88集)</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2639,6 +3383,7 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -2647,7 +3392,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="1" t="str">
+        <v>小米汽车答网友问(第89集)</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -2663,6 +3410,7 @@
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -2671,7 +3419,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1" t="str">
+        <v>小米汽车答网友问(第90集)</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2687,6 +3437,7 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -2695,7 +3446,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="1" t="str">
+        <v>小米汽车答网友问(第91集)</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -2711,6 +3464,7 @@
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -2719,7 +3473,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="1" t="str">
+        <v>小米汽车答网友问(第92集)</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2735,6 +3491,7 @@
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -2743,7 +3500,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="1" t="str">
+        <v>小米汽车答网友问(第93集)</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -2759,6 +3518,7 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -2767,7 +3527,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="1" t="str">
+        <v>小米汽车答网友问(第94集)</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -2783,6 +3545,7 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -2791,7 +3554,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="1" t="str">
+        <v>小米汽车答网友问(第95集)</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -2807,6 +3572,7 @@
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -2815,7 +3581,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="1" t="str">
+        <v>小米汽车答网友问(第96集)</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2831,6 +3599,7 @@
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -2839,7 +3608,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="1" t="str">
+        <v>小米汽车答网友问(第97集)</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -2855,6 +3626,7 @@
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -2863,7 +3635,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="1" t="str">
+        <v>小米汽车答网友问(第98集)</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -2879,6 +3653,7 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -2887,7 +3662,9 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="1" t="str">
+        <v>小米汽车答网友问(第99集)</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -2903,6 +3680,7 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -2911,7 +3689,9 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="1" t="str">
+        <v>小米汽车答网友问(第100集)</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -2927,6 +3707,7 @@
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -2935,7 +3716,9 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="1" t="str">
+        <v>小米汽车答网友问(第101集)</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -2951,6 +3734,7 @@
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -2959,7 +3743,9 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="1" t="str">
+        <v>小米汽车答网友问(第102集)</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -2975,6 +3761,7 @@
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -2983,7 +3770,9 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="1" t="str">
+        <v>小米汽车答网友问(第103集)</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -2999,6 +3788,7 @@
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -3007,7 +3797,9 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="1" t="str">
+        <v>小米汽车答网友问(第104集)</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -3023,6 +3815,7 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -3031,7 +3824,9 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="1" t="str">
+        <v>小米汽车答网友问(第105集)</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -3047,6 +3842,7 @@
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -3055,7 +3851,9 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="1" t="str">
+        <v>小米汽车答网友问(第106集)</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -3071,6 +3869,7 @@
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -3079,7 +3878,9 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="1" t="str">
+        <v>小米汽车答网友问(第107集)</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -3095,6 +3896,7 @@
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -3103,7 +3905,9 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="1" t="str">
+        <v>小米汽车答网友问(第108集)</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -3119,6 +3923,7 @@
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -3127,7 +3932,9 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="1" t="str">
+        <v>小米汽车答网友问(第109集)</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -3143,6 +3950,7 @@
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -3151,7 +3959,9 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="1" t="str">
+        <v>小米汽车答网友问(第110集)</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -3167,6 +3977,7 @@
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -3175,7 +3986,9 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="1" t="str">
+        <v>小米汽车答网友问(第111集)</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -3191,6 +4004,7 @@
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -3199,7 +4013,9 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="1" t="str">
+        <v>小米汽车答网友问(第112集)</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -3215,6 +4031,7 @@
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -3223,7 +4040,9 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="1" t="str">
+        <v>小米汽车答网友问(第113集)</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -3239,6 +4058,7 @@
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -3247,7 +4067,9 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="1" t="str">
+        <v>小米汽车答网友问(第114集)</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -3263,6 +4085,7 @@
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -3271,7 +4094,9 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="1" t="str">
+        <v>小米汽车答网友问(第115集)</v>
+      </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -3287,6 +4112,7 @@
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -3295,7 +4121,9 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="1" t="str">
+        <v>小米汽车答网友问(第116集)</v>
+      </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -3311,6 +4139,7 @@
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -3319,7 +4148,9 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="1" t="str">
+        <v>小米汽车答网友问(第117集)</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -3335,6 +4166,7 @@
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -3343,7 +4175,9 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="1" t="str">
+        <v>小米汽车答网友问(第118集)</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -3359,6 +4193,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -3367,7 +4202,9 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="1" t="str">
+        <v>小米汽车答网友问(第119集)</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -3383,6 +4220,7 @@
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -3391,7 +4229,9 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="1" t="str">
+        <v>小米汽车答网友问(第120集)</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -3407,6 +4247,7 @@
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -3415,7 +4256,9 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="1" t="str">
+        <v>小米汽车答网友问(第121集)</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -3431,6 +4274,7 @@
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -3439,7 +4283,9 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="1" t="str">
+        <v>小米汽车答网友问(第122集)</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -3455,6 +4301,7 @@
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -3463,7 +4310,9 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="1" t="str">
+        <v>小米汽车答网友问(第123集)</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -3479,6 +4328,7 @@
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -3487,7 +4337,9 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="1" t="str">
+        <v>小米汽车答网友问(第124集)</v>
+      </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -3503,6 +4355,7 @@
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -3511,7 +4364,9 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="1" t="str">
+        <v>小米汽车答网友问(第125集)</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -3527,6 +4382,7 @@
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -3535,7 +4391,9 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="1" t="str">
+        <v>小米汽车答网友问(第126集)</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -3551,6 +4409,7 @@
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -3559,7 +4418,9 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="1" t="str">
+        <v>小米汽车答网友问(第127集)</v>
+      </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -3575,6 +4436,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -3583,7 +4445,9 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="1" t="str">
+        <v>小米汽车答网友问(第128集)</v>
+      </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -3599,6 +4463,7 @@
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -3607,7 +4472,9 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="1" t="str">
+        <v>小米汽车答网友问(第129集)</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -3623,6 +4490,7 @@
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -3631,7 +4499,9 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="1" t="str">
+        <v>小米汽车答网友问(第130集)</v>
+      </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -3647,6 +4517,7 @@
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -3655,7 +4526,9 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="1" t="str">
+        <v>小米汽车答网友问(第131集)</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -3671,6 +4544,7 @@
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -3679,7 +4553,9 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="1" t="str">
+        <v>小米汽车答网友问(第132集)</v>
+      </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -3695,6 +4571,7 @@
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -3703,7 +4580,9 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="1" t="str">
+        <v>小米汽车答网友问(第133集)</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -3719,6 +4598,7 @@
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -3727,7 +4607,9 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="1" t="str">
+        <v>小米汽车答网友问(第134集)</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -3743,6 +4625,7 @@
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -3751,7 +4634,9 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="1" t="str">
+        <v>小米汽车答网友问(第135集)</v>
+      </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -3767,6 +4652,7 @@
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -3775,7 +4661,9 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="1" t="str">
+        <v>小米汽车答网友问(第136集)</v>
+      </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -3791,6 +4679,7 @@
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -3799,7 +4688,9 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="1" t="str">
+        <v>小米汽车答网友问(第137集)</v>
+      </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -3815,6 +4706,7 @@
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -3823,7 +4715,9 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="1" t="str">
+        <v>小米汽车答网友问(第138集)</v>
+      </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -3839,6 +4733,7 @@
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -3847,7 +4742,9 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="1" t="str">
+        <v>小米汽车答网友问(第139集)</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -3863,6 +4760,7 @@
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -3871,7 +4769,9 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="1" t="str">
+        <v>小米汽车答网友问(第140集)</v>
+      </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -3887,6 +4787,7 @@
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -3895,7 +4796,9 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="1" t="str">
+        <v>小米汽车答网友问(第141集)</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -3911,6 +4814,7 @@
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -3919,7 +4823,9 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="1" t="str">
+        <v>小米汽车答网友问(第142集)</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -3935,6 +4841,7 @@
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -3943,7 +4850,9 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="E145" s="1" t="str">
+        <v>小米汽车答网友问(第143集)</v>
+      </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -3959,6 +4868,7 @@
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -3967,7 +4877,9 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="1" t="str">
+        <v>小米汽车答网友问(第144集)</v>
+      </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -3983,6 +4895,7 @@
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -3991,7 +4904,9 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="1" t="str">
+        <v>小米汽车答网友问(第145集)</v>
+      </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -4007,6 +4922,7 @@
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -4015,7 +4931,9 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="1" t="str">
+        <v>小米汽车答网友问(第146集)</v>
+      </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -4031,6 +4949,7 @@
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -4039,7 +4958,9 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="1" t="str">
+        <v>小米汽车答网友问(第147集)</v>
+      </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -4055,6 +4976,7 @@
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -4063,7 +4985,9 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="1" t="str">
+        <v>小米汽车答网友问(第148集)</v>
+      </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -4079,6 +5003,7 @@
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -4087,7 +5012,9 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="E151" s="1" t="str">
+        <v>小米汽车答网友问(第149集)</v>
+      </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
@@ -4103,6 +5030,7 @@
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -4111,7 +5039,9 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="1" t="str">
+        <v>小米汽车答网友问(第150集)</v>
+      </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -4127,6 +5057,7 @@
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
+      <c r="U152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -4135,7 +5066,9 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="E153" s="1" t="str">
+        <v>小米汽车答网友问(第151集)</v>
+      </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -4151,6 +5084,7 @@
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
+      <c r="U153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -4159,7 +5093,9 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="E154" s="1" t="str">
+        <v>小米汽车答网友问(第152集)</v>
+      </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -4175,6 +5111,7 @@
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
+      <c r="U154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -4183,7 +5120,9 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="1" t="str">
+        <v>小米汽车答网友问(第153集)</v>
+      </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -4199,6 +5138,7 @@
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -4207,7 +5147,9 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="1" t="str">
+        <v>小米汽车答网友问(第154集)</v>
+      </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -4223,6 +5165,7 @@
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
+      <c r="U156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -4231,7 +5174,9 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="1" t="str">
+        <v>小米汽车答网友问(第155集)</v>
+      </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -4247,6 +5192,7 @@
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
+      <c r="U157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -4255,7 +5201,9 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="1" t="str">
+        <v>小米汽车答网友问(第156集)</v>
+      </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -4271,6 +5219,7 @@
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
+      <c r="U158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -4279,7 +5228,9 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="1" t="str">
+        <v>小米汽车答网友问(第157集)</v>
+      </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -4295,6 +5246,7 @@
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -4303,7 +5255,9 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="1" t="str">
+        <v>小米汽车答网友问(第158集)</v>
+      </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
@@ -4319,6 +5273,7 @@
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
+      <c r="U160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -4327,7 +5282,9 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="1" t="str">
+        <v>小米汽车答网友问(第159集)</v>
+      </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -4343,6 +5300,7 @@
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
+      <c r="U161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -4351,7 +5309,9 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="1" t="str">
+        <v>小米汽车答网友问(第160集)</v>
+      </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
@@ -4367,6 +5327,7 @@
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -4375,7 +5336,9 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="E163" s="1" t="str">
+        <v>小米汽车答网友问(第161集)</v>
+      </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
@@ -4391,6 +5354,7 @@
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -4399,7 +5363,9 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="E164" s="1" t="str">
+        <v>小米汽车答网友问(第162集)</v>
+      </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
@@ -4415,6 +5381,7 @@
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -4423,7 +5390,9 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="E165" s="1" t="str">
+        <v>小米汽车答网友问(第163集)</v>
+      </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -4439,6 +5408,7 @@
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -4447,7 +5417,9 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="E166" s="1" t="str">
+        <v>小米汽车答网友问(第164集)</v>
+      </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
@@ -4463,6 +5435,7 @@
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -4471,7 +5444,9 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="1" t="str">
+        <v>小米汽车答网友问(第165集)</v>
+      </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -4487,6 +5462,7 @@
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -4495,7 +5471,9 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="E168" s="1" t="str">
+        <v>小米汽车答网友问(第166集)</v>
+      </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
@@ -4511,6 +5489,7 @@
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -4519,7 +5498,9 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="1" t="str">
+        <v>小米汽车答网友问(第167集)</v>
+      </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
@@ -4535,6 +5516,7 @@
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -4543,7 +5525,9 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="E170" s="1" t="str">
+        <v>小米汽车答网友问(第168集)</v>
+      </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -4559,6 +5543,7 @@
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -4567,7 +5552,9 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="1" t="str">
+        <v>小米汽车答网友问(第169集)</v>
+      </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -4583,6 +5570,7 @@
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
+      <c r="U171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -4591,7 +5579,9 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="E172" s="1" t="str">
+        <v>小米汽车答网友问(第170集)</v>
+      </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -4607,6 +5597,7 @@
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
+      <c r="U172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -4615,7 +5606,9 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="E173" s="1" t="str">
+        <v>小米汽车答网友问(第171集)</v>
+      </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
@@ -4631,6 +5624,7 @@
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
+      <c r="U173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -4639,7 +5633,9 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="E174" s="1" t="str">
+        <v>小米汽车答网友问(第172集)</v>
+      </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -4655,6 +5651,7 @@
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -4663,7 +5660,9 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="1" t="str">
+        <v>小米汽车答网友问(第173集)</v>
+      </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -4679,6 +5678,7 @@
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -4687,7 +5687,9 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="1" t="str">
+        <v>小米汽车答网友问(第174集)</v>
+      </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -4703,6 +5705,7 @@
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -4711,7 +5714,9 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="1" t="str">
+        <v>小米汽车答网友问(第175集)</v>
+      </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
@@ -4727,6 +5732,7 @@
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
+      <c r="U177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -4735,7 +5741,9 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="1" t="str">
+        <v>小米汽车答网友问(第176集)</v>
+      </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -4751,6 +5759,7 @@
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
+      <c r="U178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -4759,7 +5768,9 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="1" t="str">
+        <v>小米汽车答网友问(第177集)</v>
+      </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -4775,6 +5786,7 @@
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
+      <c r="U179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -4783,7 +5795,9 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
+      <c r="E180" s="1" t="str">
+        <v>小米汽车答网友问(第178集)</v>
+      </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -4799,6 +5813,7 @@
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
+      <c r="U180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -4807,7 +5822,9 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
+      <c r="E181" s="1" t="str">
+        <v>小米汽车答网友问(第179集)</v>
+      </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -4823,6 +5840,7 @@
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="2">
@@ -4831,7 +5849,9 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
+      <c r="E182" s="1" t="str">
+        <v>小米汽车答网友问(第180集)</v>
+      </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -4847,6 +5867,7 @@
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
+      <c r="U182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -4855,7 +5876,9 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="1" t="str">
+        <v>小米汽车答网友问(第181集)</v>
+      </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
@@ -4871,6 +5894,7 @@
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
+      <c r="U183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="2">
@@ -4879,7 +5903,9 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
+      <c r="E184" s="1" t="str">
+        <v>小米汽车答网友问(第182集)</v>
+      </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
@@ -4895,6 +5921,7 @@
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2">
@@ -4903,7 +5930,9 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
+      <c r="E185" s="1" t="str">
+        <v>小米汽车答网友问(第183集)</v>
+      </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
@@ -4919,13 +5948,18 @@
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="2"/>
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
+      <c r="E186" s="1" t="str">
+        <v>小米汽车答网友问(第184集)</v>
+      </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
@@ -4941,13 +5975,14 @@
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
+      <c r="U186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
+      <c r="E187" s="1"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
@@ -4963,13 +5998,14 @@
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
+      <c r="U187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
+      <c r="E188" s="1"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
@@ -4985,13 +6021,14 @@
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
+      <c r="U188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="1"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -5007,13 +6044,14 @@
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
+      <c r="U189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="1"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
@@ -5029,13 +6067,14 @@
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
+      <c r="U190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="2"/>
+      <c r="E191" s="1"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
@@ -5051,13 +6090,14 @@
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="2"/>
+      <c r="E192" s="1"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
@@ -5073,13 +6113,14 @@
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="1"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
@@ -5095,13 +6136,14 @@
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="2"/>
+      <c r="E194" s="1"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
@@ -5117,13 +6159,14 @@
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="2"/>
+      <c r="E195" s="1"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
@@ -5139,13 +6182,14 @@
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="1"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
@@ -5161,13 +6205,14 @@
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="2"/>
+      <c r="E197" s="1"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
@@ -5183,13 +6228,14 @@
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="1"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
@@ -5205,13 +6251,14 @@
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="2"/>
+      <c r="E199" s="1"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
@@ -5227,13 +6274,14 @@
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="2"/>
+      <c r="E200" s="1"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
@@ -5249,11 +6297,62 @@
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" display="https://mp.weixin.qq.com/s/8hz4n5SO6B6wFJY3x7iheQ" r:id="rId1"/>
-    <hyperlink ref="C2" display="https://mp.weixin.qq.com/s/yFMjIGID2q5JdPXlF7iifg" r:id="rId2"/>
+    <hyperlink ref="C5" display="https://mp.weixin.qq.com/s/q08xpnd-LzNea_y6kX77sA" r:id="rId1"/>
+    <hyperlink ref="C25" display="https://mp.weixin.qq.com/s/1yCjQsfYuNssWnKdowRRng" r:id="rId2"/>
+    <hyperlink ref="C9" display="https://mp.weixin.qq.com/s/vmTpchQ6_yICyxZtwHViXQ" r:id="rId3"/>
+    <hyperlink ref="C24" display="https://mp.weixin.qq.com/s/OR8sC6_KXorq4NC4UohyAQ" r:id="rId4"/>
+    <hyperlink ref="C23" display="https://mp.weixin.qq.com/s/IgEQ8lE93se983lv6wAL-w" r:id="rId5"/>
+    <hyperlink ref="C27" display="https://mp.weixin.qq.com/s/wOGz_pKOlVXZ92S7Tv5njQ" r:id="rId6"/>
+    <hyperlink ref="C21" display="https://mp.weixin.qq.com/s/-hrmZ9NUoPT5MntmD2ri1g" r:id="rId7"/>
+    <hyperlink ref="C16" display="https://mp.weixin.qq.com/s/FZj6VzIFMdr2Vut-wI8Jsg" r:id="rId8"/>
+    <hyperlink ref="C4" display="https://mp.weixin.qq.com/s/8hz4n5SO6B6wFJY3x7iheQ" r:id="rId9"/>
+    <hyperlink ref="C22" display="https://mp.weixin.qq.com/s/iDB0KfwHSndAwandVQQEzw" r:id="rId10"/>
+    <hyperlink ref="C17" display="https://mp.weixin.qq.com/s/U7WEZB52mO3-G9C7fRnqEg" r:id="rId11"/>
+    <hyperlink ref="C12" display="https://mp.weixin.qq.com/s/ELPH13xkpUGLUj9FgAcq_A" r:id="rId12"/>
+    <hyperlink ref="C7" display="https://mp.weixin.qq.com/s/g4Xr3MWllPqd5hZD-_ibcQ" r:id="rId13"/>
+    <hyperlink ref="C10" display="https://mp.weixin.qq.com/s/_snL5Odhyw0FOimn46yA7A" r:id="rId14"/>
+    <hyperlink ref="C19" display="https://mp.weixin.qq.com/s/QSuLnmBFMm6mYJV26HB4Fw" r:id="rId15"/>
+    <hyperlink ref="C28" display="https://mp.weixin.qq.com/s/YeanZCIM4w8VL7XaRh0GaA" r:id="rId16"/>
+    <hyperlink ref="C6" display="https://mp.weixin.qq.com/s/JC5aGDFDRvgpQ3FesjaS2A" r:id="rId17"/>
+    <hyperlink ref="C29" display="https://mp.weixin.qq.com/s/fGVruFB8BFdxudfRyBLzug" r:id="rId18"/>
+    <hyperlink ref="C30" display="https://mp.weixin.qq.com/s/_reyYbhucrdEZuITTA97XA" r:id="rId19"/>
+    <hyperlink ref="C15" display="https://mp.weixin.qq.com/s/HKn0rdn23qTID1eu1SfiXw" r:id="rId20"/>
+    <hyperlink ref="C2" display="https://mp.weixin.qq.com/s/yFMjIGID2q5JdPXlF7iifg" r:id="rId21"/>
+    <hyperlink ref="C14" display="https://mp.weixin.qq.com/s/_FOl9pXnbQxX4Czc1pUsZQ" r:id="rId22"/>
+    <hyperlink ref="C3" display="https://mp.weixin.qq.com/s?__biz=MzkyNzU3MDI3Nw==&amp;mid=2247486958&amp;idx=1&amp;sn=fa1835ddd2eee3bdafefcad5b74d2d94&amp;chksm=c2274de4f550c4f28c7b9e54f1a6a8bcacc3459e88bbe256c362a899a36ca32c80be4f87c45a&amp;scene=21#wechat_redirect" r:id="rId23"/>
+    <hyperlink ref="C13" display="https://mp.weixin.qq.com/s/uxzKFtcmVS1VrhvXMIfaJA" r:id="rId24"/>
+    <hyperlink ref="C26" display="https://mp.weixin.qq.com/s/AQOcrMncAUTLmH36MWyEag" r:id="rId25"/>
+    <hyperlink ref="C8" display="https://mp.weixin.qq.com/s/xCidpA4jPrS9697uzNqvwg" r:id="rId26"/>
+    <hyperlink ref="C11" display="https://mp.weixin.qq.com/s/0jbh30HwXsHSx3Oz9bZ1xg" r:id="rId27"/>
+    <hyperlink ref="C20" display="https://mp.weixin.qq.com/s/WLrgiFpO7PLZApqqQ1hRbg" r:id="rId28"/>
+    <hyperlink ref="C18" display="https://mp.weixin.qq.com/s/nBoe4PvhUVH6ybpxw1Qg4w" r:id="rId29"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
